--- a/biology/Botanique/Coix_puellarum/Coix_puellarum.xlsx
+++ b/biology/Botanique/Coix_puellarum/Coix_puellarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coix puellarum est une espèce de plantes monocotylédones  de la famille des Poaceae (Graminées), sous-famille des Panicoideae, originaire d'Asie tempérée et tropicale.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coix puellarum est une plante herbacée, annuelle, aux tiges (chaumes) dressées, de 90 à 250 cm de long.
-Les feuilles ont un limbe linéaire ou lancéolé de 10 à 50 cm de long sur 10 à 50 mm de large, à la base cordée et avec une ligule membraneuse[2].
+Les feuilles ont un limbe linéaire ou lancéolé de 10 à 50 cm de long sur 10 à 50 mm de large, à la base cordée et avec une ligule membraneuse.
 C'est une plante monoïque dont l'inflorescence est une panicule composée de racèmes mâle et femelle, sous-tendue par une spathéole commune. Le racème mâle est exsert tandis que le racème femelle est enveloppé. La désarticulation concerne l'inflorescence entière qui constitue l'unité de dissémination.
-Les épillets sont groupés par trois, un épillet fertile accompagné de deux épillets stériles dans le racème femelle, 2 à 3 épillets mâles sessiles ou pédicellés sur le racème mâle. Les épillets sont sous-tendus par deux glumes dissemblables[2].
+Les épillets sont groupés par trois, un épillet fertile accompagné de deux épillets stériles dans le racème femelle, 2 à 3 épillets mâles sessiles ou pédicellés sur le racème mâle. Les épillets sont sous-tendus par deux glumes dissemblables.
 Les épillets fertiles, ovales, comprimés dorsalement, de 8 à 9 mm de long, comprennent un fleuron basal stérile et un fleuron fertile sans extension du rachillet
 Les fleurons femelles n'ont pas de lodicules tandis que les fleurons mâles en comptent deux.
-Le fruit est un caryopse au péricarpe adhérent à la graine[2].
+Le fruit est un caryopse au péricarpe adhérent à la graine.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Coix aquatica s'étend en Asie tropicale et tempérée : Chine (Hainan, Xizang, Yunnan), sous-continent indien (nord-est de l'Inde), Myanmar, Thaïlande, Vietnam[3].
-La plante se rencontre dans les vallées forestières humides vers 1400 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Coix aquatica s'étend en Asie tropicale et tempérée : Chine (Hainan, Xizang, Yunnan), sous-continent indien (nord-est de l'Inde), Myanmar, Thaïlande, Vietnam.
+La plante se rencontre dans les vallées forestières humides vers 1400 mètres d'altitude.
 </t>
         </is>
       </c>
